--- a/simulated_data/10nodes_30len_trial4.xlsx
+++ b/simulated_data/10nodes_30len_trial4.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.036178293999191</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.036043400745292</v>
+        <v>22.315</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.275</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>22.355</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12.015</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20.645</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20.725</v>
+      </c>
+      <c r="K2" t="n">
+        <v>25.04</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.336183036263556</v>
+        <v>22.315</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.335930402863873</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.465</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.355</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.365</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22.555</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.13</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6365123816398509</v>
+        <v>24.06</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.636341353559518</v>
+        <v>2.075</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.715</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.625</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.455</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.35</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.869510843091702</v>
+        <v>18.275</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.869049473254988</v>
+        <v>10.465</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.715</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.005000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.765</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.375</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.42015403531392</v>
+        <v>2.13</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.420065362663609</v>
+        <v>19.355</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.625</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.165</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22.325</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.721311471309849</v>
+        <v>22.355</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.721209681796716</v>
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.165</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.295</v>
+      </c>
+      <c r="J7" t="n">
+        <v>16.135</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.675</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.374180235887764</v>
+        <v>12.015</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.374271048085821</v>
+        <v>15.82</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.455</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.005000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.765</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.28</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.355473922920618</v>
+        <v>20.645</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.356015306848913</v>
+        <v>11.365</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.295</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>19.955</v>
+      </c>
+      <c r="K9" t="n">
+        <v>23.255</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4820959834359367</v>
+        <v>20.725</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4822597665058284</v>
+        <v>22.555</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.765</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16.135</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21.765</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19.955</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.44</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>25.04</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>12.13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.375</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.325</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.675</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.255</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>23.64</v>
+        <v>14.97</v>
       </c>
       <c r="D2" t="n">
-        <v>26.04</v>
+        <v>15.63</v>
       </c>
       <c r="E2" t="n">
-        <v>17.62</v>
+        <v>18.92</v>
       </c>
       <c r="F2" t="n">
-        <v>4.37</v>
+        <v>2.49</v>
       </c>
       <c r="G2" t="n">
-        <v>21.69</v>
+        <v>15.33</v>
       </c>
       <c r="H2" t="n">
-        <v>13.18</v>
+        <v>14.1</v>
       </c>
       <c r="I2" t="n">
-        <v>15.6</v>
+        <v>11.93</v>
       </c>
       <c r="J2" t="n">
-        <v>22.05</v>
+        <v>25.1</v>
       </c>
       <c r="K2" t="n">
-        <v>23.59</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.64</v>
+        <v>14.97</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.57</v>
+        <v>1.78</v>
       </c>
       <c r="E3" t="n">
-        <v>8.01</v>
+        <v>8.65</v>
       </c>
       <c r="F3" t="n">
-        <v>22.13</v>
+        <v>17.03</v>
       </c>
       <c r="G3" t="n">
-        <v>3.91</v>
+        <v>4.05</v>
       </c>
       <c r="H3" t="n">
-        <v>12.17</v>
+        <v>12.97</v>
       </c>
       <c r="I3" t="n">
-        <v>11.68</v>
+        <v>14.3</v>
       </c>
       <c r="J3" t="n">
-        <v>20.52</v>
+        <v>10.95</v>
       </c>
       <c r="K3" t="n">
-        <v>13.6</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.04</v>
+        <v>15.63</v>
       </c>
       <c r="C4" t="n">
-        <v>2.57</v>
+        <v>1.78</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.68</v>
+        <v>10.2</v>
       </c>
       <c r="F4" t="n">
-        <v>24.65</v>
+        <v>17.82</v>
       </c>
       <c r="G4" t="n">
-        <v>5.12</v>
+        <v>5.78</v>
       </c>
       <c r="H4" t="n">
-        <v>14.74</v>
+        <v>14.71</v>
       </c>
       <c r="I4" t="n">
-        <v>14.19</v>
+        <v>15.95</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>13.63</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.62</v>
+        <v>18.92</v>
       </c>
       <c r="C5" t="n">
-        <v>8.01</v>
+        <v>8.65</v>
       </c>
       <c r="D5" t="n">
-        <v>9.68</v>
+        <v>10.2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17.36</v>
+        <v>20.16</v>
       </c>
       <c r="G5" t="n">
-        <v>4.61</v>
+        <v>4.87</v>
       </c>
       <c r="H5" t="n">
-        <v>10.22</v>
+        <v>8.9</v>
       </c>
       <c r="I5" t="n">
-        <v>11.61</v>
+        <v>11.74</v>
       </c>
       <c r="J5" t="n">
-        <v>13.69</v>
+        <v>15.74</v>
       </c>
       <c r="K5" t="n">
-        <v>8.890000000000001</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.37</v>
+        <v>2.49</v>
       </c>
       <c r="C6" t="n">
-        <v>22.13</v>
+        <v>17.03</v>
       </c>
       <c r="D6" t="n">
-        <v>24.65</v>
+        <v>17.82</v>
       </c>
       <c r="E6" t="n">
-        <v>17.36</v>
+        <v>20.16</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.85</v>
+        <v>16.98</v>
       </c>
       <c r="H6" t="n">
-        <v>10.51</v>
+        <v>14.33</v>
       </c>
       <c r="I6" t="n">
-        <v>12.52</v>
+        <v>11.77</v>
       </c>
       <c r="J6" t="n">
-        <v>24.4</v>
+        <v>27.39</v>
       </c>
       <c r="K6" t="n">
-        <v>24.59</v>
+        <v>26.42</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.69</v>
+        <v>15.33</v>
       </c>
       <c r="C7" t="n">
-        <v>3.91</v>
+        <v>4.05</v>
       </c>
       <c r="D7" t="n">
-        <v>5.12</v>
+        <v>5.78</v>
       </c>
       <c r="E7" t="n">
-        <v>4.61</v>
+        <v>4.87</v>
       </c>
       <c r="F7" t="n">
-        <v>20.85</v>
+        <v>16.98</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>11.98</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>12.38</v>
+        <v>11.46</v>
       </c>
       <c r="J7" t="n">
-        <v>16.62</v>
+        <v>13.54</v>
       </c>
       <c r="K7" t="n">
-        <v>9.93</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.18</v>
+        <v>14.1</v>
       </c>
       <c r="C8" t="n">
-        <v>12.17</v>
+        <v>12.97</v>
       </c>
       <c r="D8" t="n">
-        <v>14.74</v>
+        <v>14.71</v>
       </c>
       <c r="E8" t="n">
-        <v>10.22</v>
+        <v>8.9</v>
       </c>
       <c r="F8" t="n">
-        <v>10.51</v>
+        <v>14.33</v>
       </c>
       <c r="G8" t="n">
-        <v>11.98</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>22.25</v>
+        <v>23.07</v>
       </c>
       <c r="K8" t="n">
-        <v>19.04</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.6</v>
+        <v>11.93</v>
       </c>
       <c r="C9" t="n">
-        <v>11.68</v>
+        <v>14.3</v>
       </c>
       <c r="D9" t="n">
-        <v>14.19</v>
+        <v>15.95</v>
       </c>
       <c r="E9" t="n">
-        <v>11.61</v>
+        <v>11.74</v>
       </c>
       <c r="F9" t="n">
-        <v>12.52</v>
+        <v>11.77</v>
       </c>
       <c r="G9" t="n">
-        <v>12.38</v>
+        <v>11.46</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>24.39</v>
+        <v>24.93</v>
       </c>
       <c r="K9" t="n">
-        <v>20.5</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.05</v>
+        <v>25.1</v>
       </c>
       <c r="C10" t="n">
-        <v>20.52</v>
+        <v>10.95</v>
       </c>
       <c r="D10" t="n">
-        <v>21.07</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>13.69</v>
+        <v>15.74</v>
       </c>
       <c r="F10" t="n">
-        <v>24.4</v>
+        <v>27.39</v>
       </c>
       <c r="G10" t="n">
-        <v>16.62</v>
+        <v>13.54</v>
       </c>
       <c r="H10" t="n">
-        <v>22.25</v>
+        <v>23.07</v>
       </c>
       <c r="I10" t="n">
-        <v>24.39</v>
+        <v>24.93</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.98</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.59</v>
+        <v>24.68</v>
       </c>
       <c r="C11" t="n">
-        <v>13.6</v>
+        <v>10.38</v>
       </c>
       <c r="D11" t="n">
-        <v>13.63</v>
+        <v>10.78</v>
       </c>
       <c r="E11" t="n">
-        <v>8.890000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="F11" t="n">
-        <v>24.59</v>
+        <v>26.42</v>
       </c>
       <c r="G11" t="n">
-        <v>9.93</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>19.04</v>
+        <v>17.03</v>
       </c>
       <c r="I11" t="n">
-        <v>20.5</v>
+        <v>19.73</v>
       </c>
       <c r="J11" t="n">
-        <v>7.98</v>
+        <v>10.07</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.110897642731933</v>
+        <v>9.527412502409318</v>
       </c>
       <c r="C2" t="n">
-        <v>14.80471726851384</v>
+        <v>-8.076422598728247</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.38168985304885</v>
+        <v>2.894280083630369</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.261055647012568</v>
+        <v>5.344162595658395</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.352686866936138</v>
+        <v>1.133840018048</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.826026350105018</v>
+        <v>5.11008428354047</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.214298519695945</v>
+        <v>9.568257638472696</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.710946228590974</v>
+        <v>10.84182924971229</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.24509302945497</v>
+        <v>11.74908085783844</v>
       </c>
       <c r="C6" t="n">
-        <v>14.47550490636565</v>
+        <v>-9.203581246882422</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.576445114634796</v>
+        <v>6.602639015411462</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.375533442673218</v>
+        <v>6.977024767961516</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.591699536505639</v>
+        <v>15.83575511229844</v>
       </c>
       <c r="C8" t="n">
-        <v>4.911814877652683</v>
+        <v>4.529126258499462</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.213536830939557</v>
+        <v>16.66644014723522</v>
       </c>
       <c r="C9" t="n">
-        <v>4.072173269327789</v>
+        <v>1.486993707122344</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-14.8530122371961</v>
+        <v>-6.153926052810344</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.85864089076392</v>
+        <v>11.51922268805997</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-8.182942831895962</v>
+        <v>3.000323445690087</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.232007762714261</v>
+        <v>15.72311428496171</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.800000000000001</v>
+        <v>5.23</v>
       </c>
       <c r="D2" t="n">
-        <v>23.15</v>
+        <v>6.22</v>
       </c>
       <c r="E2" t="n">
-        <v>10.65</v>
+        <v>4.48</v>
       </c>
       <c r="F2" t="n">
-        <v>20.83</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>17.59</v>
+        <v>4.69</v>
       </c>
       <c r="H2" t="n">
-        <v>9.029999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="I2" t="n">
-        <v>17.13</v>
+        <v>0.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.93</v>
+        <v>7.8</v>
       </c>
       <c r="K2" t="n">
-        <v>17.59</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.800000000000001</v>
+        <v>5.23</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15.04</v>
+        <v>0.99</v>
       </c>
       <c r="E3" t="n">
-        <v>12.73</v>
+        <v>0.75</v>
       </c>
       <c r="F3" t="n">
-        <v>18.75</v>
+        <v>7.19</v>
       </c>
       <c r="G3" t="n">
-        <v>8.800000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="H3" t="n">
-        <v>8.33</v>
+        <v>5.71</v>
       </c>
       <c r="I3" t="n">
-        <v>12.04</v>
+        <v>5.68</v>
       </c>
       <c r="J3" t="n">
-        <v>12.5</v>
+        <v>2.57</v>
       </c>
       <c r="K3" t="n">
-        <v>10.88</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.15</v>
+        <v>6.22</v>
       </c>
       <c r="C4" t="n">
-        <v>15.04</v>
+        <v>0.99</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.6</v>
+        <v>1.74</v>
       </c>
       <c r="F4" t="n">
-        <v>17.36</v>
+        <v>8.18</v>
       </c>
       <c r="G4" t="n">
-        <v>7.41</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>16.9</v>
+        <v>6.7</v>
       </c>
       <c r="I4" t="n">
-        <v>9.949999999999999</v>
+        <v>6.67</v>
       </c>
       <c r="J4" t="n">
-        <v>27.08</v>
+        <v>1.58</v>
       </c>
       <c r="K4" t="n">
-        <v>17.36</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.65</v>
+        <v>4.48</v>
       </c>
       <c r="C5" t="n">
-        <v>12.73</v>
+        <v>0.75</v>
       </c>
       <c r="D5" t="n">
-        <v>20.6</v>
+        <v>1.74</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.11</v>
+        <v>6.44</v>
       </c>
       <c r="G5" t="n">
-        <v>18.28</v>
+        <v>0.21</v>
       </c>
       <c r="H5" t="n">
-        <v>4.63</v>
+        <v>4.96</v>
       </c>
       <c r="I5" t="n">
-        <v>11.34</v>
+        <v>4.93</v>
       </c>
       <c r="J5" t="n">
-        <v>12.96</v>
+        <v>3.33</v>
       </c>
       <c r="K5" t="n">
-        <v>23.61</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.83</v>
+        <v>1.96</v>
       </c>
       <c r="C6" t="n">
-        <v>18.75</v>
+        <v>7.19</v>
       </c>
       <c r="D6" t="n">
-        <v>17.36</v>
+        <v>8.18</v>
       </c>
       <c r="E6" t="n">
-        <v>11.11</v>
+        <v>6.44</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>19.21</v>
+        <v>6.65</v>
       </c>
       <c r="H6" t="n">
-        <v>11.8</v>
+        <v>1.48</v>
       </c>
       <c r="I6" t="n">
-        <v>8.56</v>
+        <v>1.51</v>
       </c>
       <c r="J6" t="n">
-        <v>23.61</v>
+        <v>9.76</v>
       </c>
       <c r="K6" t="n">
-        <v>28.24</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.59</v>
+        <v>4.69</v>
       </c>
       <c r="C7" t="n">
-        <v>8.800000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="D7" t="n">
-        <v>7.41</v>
+        <v>1.53</v>
       </c>
       <c r="E7" t="n">
-        <v>18.28</v>
+        <v>0.21</v>
       </c>
       <c r="F7" t="n">
-        <v>19.21</v>
+        <v>6.65</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.66</v>
+        <v>5.17</v>
       </c>
       <c r="I7" t="n">
-        <v>10.88</v>
+        <v>5.14</v>
       </c>
       <c r="J7" t="n">
-        <v>21.29</v>
+        <v>3.12</v>
       </c>
       <c r="K7" t="n">
-        <v>10.42</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.029999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="C8" t="n">
-        <v>8.33</v>
+        <v>5.71</v>
       </c>
       <c r="D8" t="n">
-        <v>16.9</v>
+        <v>6.7</v>
       </c>
       <c r="E8" t="n">
-        <v>4.63</v>
+        <v>4.96</v>
       </c>
       <c r="F8" t="n">
-        <v>11.8</v>
+        <v>1.48</v>
       </c>
       <c r="G8" t="n">
-        <v>13.66</v>
+        <v>5.17</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8.56</v>
+        <v>0.03</v>
       </c>
       <c r="J8" t="n">
-        <v>12.5</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>18.98</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.13</v>
+        <v>0.45</v>
       </c>
       <c r="C9" t="n">
-        <v>12.04</v>
+        <v>5.68</v>
       </c>
       <c r="D9" t="n">
-        <v>9.949999999999999</v>
+        <v>6.67</v>
       </c>
       <c r="E9" t="n">
-        <v>11.34</v>
+        <v>4.93</v>
       </c>
       <c r="F9" t="n">
-        <v>8.56</v>
+        <v>1.51</v>
       </c>
       <c r="G9" t="n">
-        <v>10.88</v>
+        <v>5.14</v>
       </c>
       <c r="H9" t="n">
-        <v>8.56</v>
+        <v>0.03</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>20.83</v>
+        <v>8.26</v>
       </c>
       <c r="K9" t="n">
-        <v>20.14</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.93</v>
+        <v>7.8</v>
       </c>
       <c r="C10" t="n">
-        <v>12.5</v>
+        <v>2.57</v>
       </c>
       <c r="D10" t="n">
-        <v>27.08</v>
+        <v>1.58</v>
       </c>
       <c r="E10" t="n">
-        <v>12.96</v>
+        <v>3.33</v>
       </c>
       <c r="F10" t="n">
-        <v>23.61</v>
+        <v>9.76</v>
       </c>
       <c r="G10" t="n">
-        <v>21.29</v>
+        <v>3.12</v>
       </c>
       <c r="H10" t="n">
-        <v>12.5</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>20.83</v>
+        <v>8.26</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>20.37</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17.59</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>10.88</v>
+        <v>3.3</v>
       </c>
       <c r="D11" t="n">
-        <v>17.36</v>
+        <v>2.31</v>
       </c>
       <c r="E11" t="n">
-        <v>23.61</v>
+        <v>4.06</v>
       </c>
       <c r="F11" t="n">
-        <v>28.24</v>
+        <v>10.49</v>
       </c>
       <c r="G11" t="n">
-        <v>10.42</v>
+        <v>3.85</v>
       </c>
       <c r="H11" t="n">
-        <v>18.98</v>
+        <v>9.01</v>
       </c>
       <c r="I11" t="n">
-        <v>20.14</v>
+        <v>8.99</v>
       </c>
       <c r="J11" t="n">
-        <v>20.37</v>
+        <v>0.73</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.06713598113590925</v>
+        <v>-5.036178293999191</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4335258545687872</v>
+        <v>-5.036043400745292</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1661285682095031</v>
+        <v>-1.336183036263556</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1312068764019341</v>
+        <v>-1.335930402863873</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2553513955900774</v>
+        <v>-0.6365123816398509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5172390525561797</v>
+        <v>-0.636341353559518</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3840903304617676</v>
+        <v>-1.869510843091702</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1058229901735404</v>
+        <v>-1.869049473254988</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4820870529170287</v>
+        <v>-6.42015403531392</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3600123725524964</v>
+        <v>-6.420065362663609</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3379845645567694</v>
+        <v>-1.721311471309849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2067064000011713</v>
+        <v>-1.721209681796716</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1896644979234178</v>
+        <v>-5.374180235887764</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.06101607671707665</v>
+        <v>-5.374271048085821</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1209031312901683</v>
+        <v>-5.355473922920618</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3051106647603723</v>
+        <v>-5.356015306848913</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1119129980380195</v>
+        <v>0.4820959834359367</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5931360871421301</v>
+        <v>0.4822597665058284</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6321594368951793</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1311911718829007</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>20.28</v>
+        <v>23.64</v>
       </c>
       <c r="D2" t="n">
-        <v>21.85</v>
+        <v>26.04</v>
       </c>
       <c r="E2" t="n">
-        <v>15.36</v>
+        <v>17.62</v>
       </c>
       <c r="F2" t="n">
-        <v>2.37</v>
+        <v>4.37</v>
       </c>
       <c r="G2" t="n">
-        <v>17.7</v>
+        <v>21.69</v>
       </c>
       <c r="H2" t="n">
-        <v>8.75</v>
+        <v>13.18</v>
       </c>
       <c r="I2" t="n">
-        <v>7.89</v>
+        <v>15.6</v>
       </c>
       <c r="J2" t="n">
-        <v>29.09</v>
+        <v>22.05</v>
       </c>
       <c r="K2" t="n">
-        <v>26.9</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.28</v>
+        <v>23.64</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.93</v>
+        <v>2.57</v>
       </c>
       <c r="E3" t="n">
-        <v>4.95</v>
+        <v>8.01</v>
       </c>
       <c r="F3" t="n">
-        <v>21.91</v>
+        <v>22.13</v>
       </c>
       <c r="G3" t="n">
-        <v>4.32</v>
+        <v>3.91</v>
       </c>
       <c r="H3" t="n">
-        <v>11.53</v>
+        <v>12.17</v>
       </c>
       <c r="I3" t="n">
-        <v>13.2</v>
+        <v>11.68</v>
       </c>
       <c r="J3" t="n">
-        <v>9.84</v>
+        <v>20.52</v>
       </c>
       <c r="K3" t="n">
-        <v>6.73</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.85</v>
+        <v>26.04</v>
       </c>
       <c r="C4" t="n">
-        <v>1.93</v>
+        <v>2.57</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.51</v>
+        <v>9.68</v>
       </c>
       <c r="F4" t="n">
-        <v>23.38</v>
+        <v>24.65</v>
       </c>
       <c r="G4" t="n">
-        <v>4.88</v>
+        <v>5.12</v>
       </c>
       <c r="H4" t="n">
-        <v>13.12</v>
+        <v>14.74</v>
       </c>
       <c r="I4" t="n">
-        <v>14.53</v>
+        <v>14.19</v>
       </c>
       <c r="J4" t="n">
-        <v>9.33</v>
+        <v>21.07</v>
       </c>
       <c r="K4" t="n">
-        <v>5.05</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.36</v>
+        <v>17.62</v>
       </c>
       <c r="C5" t="n">
-        <v>4.95</v>
+        <v>8.01</v>
       </c>
       <c r="D5" t="n">
-        <v>6.51</v>
+        <v>9.68</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>16.96</v>
+        <v>17.36</v>
       </c>
       <c r="G5" t="n">
-        <v>3.47</v>
+        <v>4.61</v>
       </c>
       <c r="H5" t="n">
-        <v>6.61</v>
+        <v>10.22</v>
       </c>
       <c r="I5" t="n">
-        <v>8.32</v>
+        <v>11.61</v>
       </c>
       <c r="J5" t="n">
-        <v>14.42</v>
+        <v>13.69</v>
       </c>
       <c r="K5" t="n">
-        <v>11.55</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.37</v>
+        <v>4.37</v>
       </c>
       <c r="C6" t="n">
-        <v>21.91</v>
+        <v>22.13</v>
       </c>
       <c r="D6" t="n">
-        <v>23.38</v>
+        <v>24.65</v>
       </c>
       <c r="E6" t="n">
-        <v>16.96</v>
+        <v>17.36</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>19.01</v>
+        <v>20.85</v>
       </c>
       <c r="H6" t="n">
-        <v>10.46</v>
+        <v>10.51</v>
       </c>
       <c r="I6" t="n">
-        <v>8.99</v>
+        <v>12.52</v>
       </c>
       <c r="J6" t="n">
-        <v>30.98</v>
+        <v>24.4</v>
       </c>
       <c r="K6" t="n">
-        <v>28.42</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.7</v>
+        <v>21.69</v>
       </c>
       <c r="C7" t="n">
-        <v>4.32</v>
+        <v>3.91</v>
       </c>
       <c r="D7" t="n">
-        <v>4.88</v>
+        <v>5.12</v>
       </c>
       <c r="E7" t="n">
-        <v>3.47</v>
+        <v>4.61</v>
       </c>
       <c r="F7" t="n">
-        <v>19.01</v>
+        <v>20.85</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9.23</v>
+        <v>11.98</v>
       </c>
       <c r="I7" t="n">
-        <v>10.03</v>
+        <v>12.38</v>
       </c>
       <c r="J7" t="n">
-        <v>14.04</v>
+        <v>16.62</v>
       </c>
       <c r="K7" t="n">
-        <v>9.630000000000001</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.75</v>
+        <v>13.18</v>
       </c>
       <c r="C8" t="n">
-        <v>11.53</v>
+        <v>12.17</v>
       </c>
       <c r="D8" t="n">
-        <v>13.12</v>
+        <v>14.74</v>
       </c>
       <c r="E8" t="n">
-        <v>6.61</v>
+        <v>10.22</v>
       </c>
       <c r="F8" t="n">
-        <v>10.46</v>
+        <v>10.51</v>
       </c>
       <c r="G8" t="n">
-        <v>9.23</v>
+        <v>11.98</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.11</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
-        <v>20.54</v>
+        <v>22.25</v>
       </c>
       <c r="K8" t="n">
-        <v>18.16</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.89</v>
+        <v>15.6</v>
       </c>
       <c r="C9" t="n">
-        <v>13.2</v>
+        <v>11.68</v>
       </c>
       <c r="D9" t="n">
-        <v>14.53</v>
+        <v>14.19</v>
       </c>
       <c r="E9" t="n">
-        <v>8.32</v>
+        <v>11.61</v>
       </c>
       <c r="F9" t="n">
-        <v>8.99</v>
+        <v>12.52</v>
       </c>
       <c r="G9" t="n">
-        <v>10.03</v>
+        <v>12.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.11</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>22.7</v>
+        <v>24.39</v>
       </c>
       <c r="K9" t="n">
-        <v>19.53</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.09</v>
+        <v>22.05</v>
       </c>
       <c r="C10" t="n">
-        <v>9.84</v>
+        <v>20.52</v>
       </c>
       <c r="D10" t="n">
-        <v>9.33</v>
+        <v>21.07</v>
       </c>
       <c r="E10" t="n">
-        <v>14.42</v>
+        <v>13.69</v>
       </c>
       <c r="F10" t="n">
-        <v>30.98</v>
+        <v>24.4</v>
       </c>
       <c r="G10" t="n">
-        <v>14.04</v>
+        <v>16.62</v>
       </c>
       <c r="H10" t="n">
-        <v>20.54</v>
+        <v>22.25</v>
       </c>
       <c r="I10" t="n">
-        <v>22.7</v>
+        <v>24.39</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.87</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.9</v>
+        <v>23.59</v>
       </c>
       <c r="C11" t="n">
-        <v>6.73</v>
+        <v>13.6</v>
       </c>
       <c r="D11" t="n">
-        <v>5.05</v>
+        <v>13.63</v>
       </c>
       <c r="E11" t="n">
-        <v>11.55</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>28.42</v>
+        <v>24.59</v>
       </c>
       <c r="G11" t="n">
-        <v>9.630000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="H11" t="n">
-        <v>18.16</v>
+        <v>19.04</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53</v>
+        <v>20.5</v>
       </c>
       <c r="J11" t="n">
-        <v>6.87</v>
+        <v>7.98</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-14.51204177822686</v>
+        <v>14.82469693209446</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.39830946079297</v>
+        <v>-3.01424922920775</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.28684437044592</v>
+        <v>-7.296009910072648</v>
       </c>
       <c r="C3" t="n">
-        <v>1.311445180819904</v>
+        <v>5.334206049220377</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.213615866585098</v>
+        <v>-9.860736822842927</v>
       </c>
       <c r="C4" t="n">
-        <v>1.375467174324221</v>
+        <v>5.288470463098854</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.284995272435774</v>
+        <v>-2.702966765017617</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.109288154613488</v>
+        <v>-1.231958204032779</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-14.61053951378979</v>
+        <v>14.46707419910776</v>
       </c>
       <c r="C6" t="n">
-        <v>-13.76186997402971</v>
+        <v>1.339501050318091</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.064802025288129</v>
+        <v>-6.385682099641231</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.003197863934089</v>
+        <v>1.534819207742979</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.695015582236086</v>
+        <v>4.875231527828319</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.912746711524532</v>
+        <v>5.623623978252928</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.017160784458737</v>
+        <v>4.018503586573282</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.947917590286346</v>
+        <v>8.239927871845396</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.513559441027822</v>
+        <v>-3.761661501273261</v>
       </c>
       <c r="C10" t="n">
-        <v>10.61060999986891</v>
+        <v>-14.87786896003772</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.306836021576463</v>
+        <v>-8.178449146756137</v>
       </c>
       <c r="C11" t="n">
-        <v>4.328839150253847</v>
+        <v>-8.236472227200373</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.775161743164062e-05</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001020431518554688</v>
+        <v>14.08</v>
       </c>
       <c r="D2" t="n">
-        <v>0.293555736541748</v>
+        <v>25.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9158549308776855</v>
+        <v>18.93</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07582950592041016</v>
+        <v>14.78</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04726982116699219</v>
+        <v>21.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.168421745300293</v>
+        <v>16.39</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="I6" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="E9" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.4440267666217963</v>
       </c>
       <c r="C2" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6664044059795435</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.524222222222222</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2322616632722571</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.775161743164062e-05</v>
+        <v>-0.3233618479976562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.1200293994269087</v>
       </c>
       <c r="C3" t="n">
-        <v>7.934999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.624311565696302</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.267777777777778</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1472013126263823</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001020431518554688</v>
+        <v>-0.1017401856209571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.3194100072829496</v>
       </c>
       <c r="C4" t="n">
-        <v>17.98</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7767741935483871</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.68688888888889</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2706201617788317</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.293555736541748</v>
+        <v>0.468630579740453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.1562977854496063</v>
       </c>
       <c r="C5" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9850746268656716</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.37133333333333</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7171533645771697</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2954545454545455</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9158549308776855</v>
+        <v>0.2422677591200246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.6169019290923601</v>
       </c>
       <c r="C6" t="n">
-        <v>6.060000000000002</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.511494252873563</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1497637301132489</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07582950592041016</v>
+        <v>0.2951479843802302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.401658667365229</v>
       </c>
       <c r="C7" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.97126436781609</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.535777777777778</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8671429744387794</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.04726982116699219</v>
+        <v>0.0953290853056273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-0.03551813196640632</v>
       </c>
       <c r="C8" t="n">
-        <v>11.49</v>
+        <v>0.1981084694315459</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.003787755776079871</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.4906467327004292</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4032292438248134</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.5205798888160693</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3485725353110818</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08470001684027899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="J2" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="K2" t="n">
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.09</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6529209621993127</v>
+        <v>14.05</v>
       </c>
       <c r="E8" t="n">
-        <v>3.591333333333333</v>
+        <v>7.24</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2419393972478652</v>
+        <v>11.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02272727272727273</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.168421745300293</v>
+        <v>2.91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="F11" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-15.83564625672317</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.711473754659082</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.717566296181115</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.341327811553489</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.891675988212842</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.655783552932366</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.467654412607434</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.5687770410476346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-15.44151311048725</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-12.34644781193874</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.236917898965494</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.528121993536704</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-6.55341308222798</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.724052892293122</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-6.926110657776465</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-8.612660272562726</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.428926322487062</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.0810103473925</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.5310578081194</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.907588233011419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="G2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="J7" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J8" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.5045983034824163</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.2053011026060263</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2732676200911416</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.261928136588468</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3288943932550936</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2232807828127455</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1710320227715303</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05182760723050159</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.5172034105779468</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.0194816831247944</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2909644421826523</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1887837280855064</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2315477171784407</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2781395089189233</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1939628663062583</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3216194359305927</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1007946226949109</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.6340906419806431</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2823591965490329</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4667057718549205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="K6" t="n">
+        <v>25.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19.21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H11" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>30.53117680038317</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.581788324885798</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-14.36930375275746</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-9.486896885633387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-17.10625883968557</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.386306128663263</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-10.33663252110468</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.001496348138546</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30.61887665551907</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.9246067996408538</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-16.66384182657841</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.411962932018042</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.851448342446016</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-10.83553498735687</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.18107060693362</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.38475261781791</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5.849053913341194</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27.25345467231968</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-14.85748155181454</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.59631370206341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002639293670654297</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002601146697998047</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002684593200683594</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.820191860198975</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9439136981964111</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1755414009094238</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05638480186462402</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.639036893844604</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00988316535949707</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.007884979248046875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>22.73</v>
+        <v>20.51</v>
       </c>
       <c r="D2" t="n">
-        <v>20.52</v>
+        <v>22.02</v>
       </c>
       <c r="E2" t="n">
-        <v>15.02</v>
+        <v>16.84</v>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="G2" t="n">
-        <v>22.07</v>
+        <v>17.62</v>
       </c>
       <c r="H2" t="n">
-        <v>10.1</v>
+        <v>17.05</v>
       </c>
       <c r="I2" t="n">
-        <v>21.18</v>
+        <v>17.19</v>
       </c>
       <c r="J2" t="n">
-        <v>18.94</v>
+        <v>16.22</v>
       </c>
       <c r="K2" t="n">
-        <v>22.03</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.9</v>
+        <v>20.51</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.37</v>
+        <v>2.27</v>
       </c>
       <c r="E3" t="n">
-        <v>7.01</v>
+        <v>5.2</v>
       </c>
       <c r="F3" t="n">
-        <v>22.1</v>
+        <v>21.52</v>
       </c>
       <c r="G3" t="n">
-        <v>5.16</v>
+        <v>3.51</v>
       </c>
       <c r="H3" t="n">
-        <v>9.710000000000001</v>
+        <v>10.83</v>
       </c>
       <c r="I3" t="n">
-        <v>12.36</v>
+        <v>13.4</v>
       </c>
       <c r="J3" t="n">
-        <v>13.74</v>
+        <v>22.05</v>
       </c>
       <c r="K3" t="n">
-        <v>9.140000000000001</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.6</v>
+        <v>22.02</v>
       </c>
       <c r="C4" t="n">
-        <v>2.78</v>
+        <v>2.27</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.2</v>
+        <v>7.44</v>
       </c>
       <c r="F4" t="n">
-        <v>28.7</v>
+        <v>23.14</v>
       </c>
       <c r="G4" t="n">
-        <v>4.95</v>
+        <v>4.44</v>
       </c>
       <c r="H4" t="n">
-        <v>17.7</v>
+        <v>13.09</v>
       </c>
       <c r="I4" t="n">
-        <v>15.21</v>
+        <v>15.65</v>
       </c>
       <c r="J4" t="n">
-        <v>16.77</v>
+        <v>24.31</v>
       </c>
       <c r="K4" t="n">
-        <v>11.91</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.53</v>
+        <v>16.84</v>
       </c>
       <c r="C5" t="n">
-        <v>13.92</v>
+        <v>5.2</v>
       </c>
       <c r="D5" t="n">
-        <v>9.23</v>
+        <v>7.44</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.74</v>
+        <v>17.57</v>
       </c>
       <c r="G5" t="n">
-        <v>4.97</v>
+        <v>5.27</v>
       </c>
       <c r="H5" t="n">
-        <v>12.48</v>
+        <v>6.02</v>
       </c>
       <c r="I5" t="n">
-        <v>12.27</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>19.13</v>
+        <v>16.87</v>
       </c>
       <c r="K5" t="n">
-        <v>6.77</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="C6" t="n">
-        <v>16.61</v>
+        <v>21.52</v>
       </c>
       <c r="D6" t="n">
-        <v>20.55</v>
+        <v>23.14</v>
       </c>
       <c r="E6" t="n">
-        <v>18.82</v>
+        <v>17.57</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.45</v>
+        <v>18.78</v>
       </c>
       <c r="H6" t="n">
-        <v>13.19</v>
+        <v>17.17</v>
       </c>
       <c r="I6" t="n">
-        <v>11.77</v>
+        <v>17.05</v>
       </c>
       <c r="J6" t="n">
-        <v>37.67</v>
+        <v>15.14</v>
       </c>
       <c r="K6" t="n">
-        <v>23.29</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.64</v>
+        <v>17.62</v>
       </c>
       <c r="C7" t="n">
-        <v>4.84</v>
+        <v>3.51</v>
       </c>
       <c r="D7" t="n">
-        <v>5.29</v>
+        <v>4.44</v>
       </c>
       <c r="E7" t="n">
-        <v>4.89</v>
+        <v>5.27</v>
       </c>
       <c r="F7" t="n">
-        <v>19.88</v>
+        <v>18.78</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.04</v>
+        <v>11.26</v>
       </c>
       <c r="I7" t="n">
-        <v>9.5</v>
+        <v>13.73</v>
       </c>
       <c r="J7" t="n">
-        <v>21.95</v>
+        <v>21.49</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.93</v>
+        <v>17.05</v>
       </c>
       <c r="C8" t="n">
-        <v>21.93</v>
+        <v>10.83</v>
       </c>
       <c r="D8" t="n">
-        <v>15.21</v>
+        <v>13.09</v>
       </c>
       <c r="E8" t="n">
-        <v>5.53</v>
+        <v>6.02</v>
       </c>
       <c r="F8" t="n">
-        <v>16.53</v>
+        <v>17.17</v>
       </c>
       <c r="G8" t="n">
-        <v>8.52</v>
+        <v>11.26</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.97</v>
+        <v>2.57</v>
       </c>
       <c r="J8" t="n">
-        <v>25.1</v>
+        <v>11.64</v>
       </c>
       <c r="K8" t="n">
-        <v>20.16</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.11</v>
+        <v>17.19</v>
       </c>
       <c r="C9" t="n">
-        <v>10.37</v>
+        <v>13.4</v>
       </c>
       <c r="D9" t="n">
-        <v>18.23</v>
+        <v>15.65</v>
       </c>
       <c r="E9" t="n">
-        <v>13.27</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>8.529999999999999</v>
+        <v>17.05</v>
       </c>
       <c r="G9" t="n">
-        <v>13.09</v>
+        <v>13.73</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.52</v>
+        <v>9.34</v>
       </c>
       <c r="K9" t="n">
-        <v>29.86</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.51</v>
+        <v>16.22</v>
       </c>
       <c r="C10" t="n">
-        <v>31.37</v>
+        <v>22.05</v>
       </c>
       <c r="D10" t="n">
-        <v>30.31</v>
+        <v>24.31</v>
       </c>
       <c r="E10" t="n">
-        <v>12.4</v>
+        <v>16.87</v>
       </c>
       <c r="F10" t="n">
-        <v>22.39</v>
+        <v>15.14</v>
       </c>
       <c r="G10" t="n">
-        <v>10.32</v>
+        <v>21.49</v>
       </c>
       <c r="H10" t="n">
-        <v>18.43</v>
+        <v>11.64</v>
       </c>
       <c r="I10" t="n">
-        <v>20.39</v>
+        <v>9.34</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>12.69</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.05</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>15.12</v>
+        <v>11.61</v>
       </c>
       <c r="D11" t="n">
-        <v>18.79</v>
+        <v>13.46</v>
       </c>
       <c r="E11" t="n">
-        <v>5.98</v>
+        <v>7.42</v>
       </c>
       <c r="F11" t="n">
-        <v>21.36</v>
+        <v>10.15</v>
       </c>
       <c r="G11" t="n">
-        <v>9.5</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>20.4</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>16.65</v>
+        <v>9.58</v>
       </c>
       <c r="J11" t="n">
-        <v>6.19</v>
+        <v>13.77</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15.94005609244513</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.531970978043764</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-4.338472071817231</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.58102624875963</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5.51222500213859</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.51906170896425</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.8837363686403595</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.689508177401612</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.66808981594463</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.907725795448817</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.111267774218859</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.95557711076658</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.279347287641306</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7848632940531981</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.342165237094075</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.552365254410743</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8.875525227386058</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.070511562193339</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.532520204154405</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.501306732491769</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6664044059795435</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.524222222222222</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2322616632722571</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.775161743164062e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7.934999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.624311565696302</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.267777777777778</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1472013126263823</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001020431518554688</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7767741935483871</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.68688888888889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2706201617788317</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.293555736541748</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9850746268656716</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.37133333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7171533645771697</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2954545454545455</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9158549308776855</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6.060000000000002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.511494252873563</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1497637301132489</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07582950592041016</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.97126436781609</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.535777777777778</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8671429744387794</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.04726982116699219</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6529209621993127</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.591333333333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2419393972478652</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.168421745300293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>22.315</v>
+        <v>22.73</v>
       </c>
       <c r="D2" t="n">
-        <v>24.06</v>
+        <v>20.52</v>
       </c>
       <c r="E2" t="n">
-        <v>18.275</v>
+        <v>15.02</v>
       </c>
       <c r="F2" t="n">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>22.355</v>
+        <v>22.07</v>
       </c>
       <c r="H2" t="n">
-        <v>12.015</v>
+        <v>10.1</v>
       </c>
       <c r="I2" t="n">
-        <v>20.645</v>
+        <v>21.18</v>
       </c>
       <c r="J2" t="n">
-        <v>20.725</v>
+        <v>18.94</v>
       </c>
       <c r="K2" t="n">
-        <v>25.04</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22.315</v>
+        <v>21.9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.075</v>
+        <v>1.37</v>
       </c>
       <c r="E3" t="n">
-        <v>10.465</v>
+        <v>7.01</v>
       </c>
       <c r="F3" t="n">
-        <v>19.355</v>
+        <v>22.1</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>5.16</v>
       </c>
       <c r="H3" t="n">
-        <v>15.82</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>11.365</v>
+        <v>12.36</v>
       </c>
       <c r="J3" t="n">
-        <v>22.555</v>
+        <v>13.74</v>
       </c>
       <c r="K3" t="n">
-        <v>12.13</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24.06</v>
+        <v>27.6</v>
       </c>
       <c r="C4" t="n">
-        <v>2.075</v>
+        <v>2.78</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.715</v>
+        <v>6.2</v>
       </c>
       <c r="F4" t="n">
-        <v>24.625</v>
+        <v>28.7</v>
       </c>
       <c r="G4" t="n">
-        <v>5.12</v>
+        <v>4.95</v>
       </c>
       <c r="H4" t="n">
-        <v>16.455</v>
+        <v>17.7</v>
       </c>
       <c r="I4" t="n">
-        <v>16.72</v>
+        <v>15.21</v>
       </c>
       <c r="J4" t="n">
-        <v>23.54</v>
+        <v>16.77</v>
       </c>
       <c r="K4" t="n">
-        <v>15.35</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18.275</v>
+        <v>21.53</v>
       </c>
       <c r="C5" t="n">
-        <v>10.465</v>
+        <v>13.92</v>
       </c>
       <c r="D5" t="n">
-        <v>7.715</v>
+        <v>9.23</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>16.28</v>
+        <v>13.74</v>
       </c>
       <c r="G5" t="n">
-        <v>4.93</v>
+        <v>4.97</v>
       </c>
       <c r="H5" t="n">
-        <v>9.005000000000001</v>
+        <v>12.48</v>
       </c>
       <c r="I5" t="n">
-        <v>12.77</v>
+        <v>12.27</v>
       </c>
       <c r="J5" t="n">
-        <v>15.765</v>
+        <v>19.13</v>
       </c>
       <c r="K5" t="n">
-        <v>6.375</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>19.355</v>
+        <v>16.61</v>
       </c>
       <c r="D6" t="n">
-        <v>24.625</v>
+        <v>20.55</v>
       </c>
       <c r="E6" t="n">
-        <v>16.28</v>
+        <v>18.82</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.165</v>
+        <v>24.45</v>
       </c>
       <c r="H6" t="n">
-        <v>14.86</v>
+        <v>13.19</v>
       </c>
       <c r="I6" t="n">
-        <v>10.15</v>
+        <v>11.77</v>
       </c>
       <c r="J6" t="n">
-        <v>30.03</v>
+        <v>37.67</v>
       </c>
       <c r="K6" t="n">
-        <v>22.325</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.355</v>
+        <v>22.64</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4.84</v>
       </c>
       <c r="D7" t="n">
-        <v>5.12</v>
+        <v>5.29</v>
       </c>
       <c r="E7" t="n">
-        <v>4.93</v>
+        <v>4.89</v>
       </c>
       <c r="F7" t="n">
-        <v>22.165</v>
+        <v>19.88</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>12.28</v>
+        <v>16.04</v>
       </c>
       <c r="I7" t="n">
-        <v>11.295</v>
+        <v>9.5</v>
       </c>
       <c r="J7" t="n">
-        <v>16.135</v>
+        <v>21.95</v>
       </c>
       <c r="K7" t="n">
-        <v>11.675</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.015</v>
+        <v>13.93</v>
       </c>
       <c r="C8" t="n">
-        <v>15.82</v>
+        <v>21.93</v>
       </c>
       <c r="D8" t="n">
-        <v>16.455</v>
+        <v>15.21</v>
       </c>
       <c r="E8" t="n">
-        <v>9.005000000000001</v>
+        <v>5.53</v>
       </c>
       <c r="F8" t="n">
-        <v>14.86</v>
+        <v>16.53</v>
       </c>
       <c r="G8" t="n">
-        <v>12.28</v>
+        <v>8.52</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.585</v>
+        <v>2.97</v>
       </c>
       <c r="J8" t="n">
-        <v>21.765</v>
+        <v>25.1</v>
       </c>
       <c r="K8" t="n">
-        <v>20.28</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.645</v>
+        <v>20.11</v>
       </c>
       <c r="C9" t="n">
-        <v>11.365</v>
+        <v>10.37</v>
       </c>
       <c r="D9" t="n">
-        <v>16.72</v>
+        <v>18.23</v>
       </c>
       <c r="E9" t="n">
-        <v>12.77</v>
+        <v>13.27</v>
       </c>
       <c r="F9" t="n">
-        <v>10.15</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>11.295</v>
+        <v>13.09</v>
       </c>
       <c r="H9" t="n">
-        <v>2.585</v>
+        <v>2.2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.955</v>
+        <v>19.52</v>
       </c>
       <c r="K9" t="n">
-        <v>23.255</v>
+        <v>29.86</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.725</v>
+        <v>22.51</v>
       </c>
       <c r="C10" t="n">
-        <v>22.555</v>
+        <v>31.37</v>
       </c>
       <c r="D10" t="n">
-        <v>23.54</v>
+        <v>30.31</v>
       </c>
       <c r="E10" t="n">
-        <v>15.765</v>
+        <v>12.4</v>
       </c>
       <c r="F10" t="n">
-        <v>30.03</v>
+        <v>22.39</v>
       </c>
       <c r="G10" t="n">
-        <v>16.135</v>
+        <v>10.32</v>
       </c>
       <c r="H10" t="n">
-        <v>21.765</v>
+        <v>18.43</v>
       </c>
       <c r="I10" t="n">
-        <v>19.955</v>
+        <v>20.39</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>9.44</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.04</v>
+        <v>28.05</v>
       </c>
       <c r="C11" t="n">
-        <v>12.13</v>
+        <v>15.12</v>
       </c>
       <c r="D11" t="n">
-        <v>15.35</v>
+        <v>18.79</v>
       </c>
       <c r="E11" t="n">
-        <v>6.375</v>
+        <v>5.98</v>
       </c>
       <c r="F11" t="n">
-        <v>22.325</v>
+        <v>21.36</v>
       </c>
       <c r="G11" t="n">
-        <v>11.675</v>
+        <v>9.5</v>
       </c>
       <c r="H11" t="n">
-        <v>20.28</v>
+        <v>20.4</v>
       </c>
       <c r="I11" t="n">
-        <v>23.255</v>
+        <v>16.65</v>
       </c>
       <c r="J11" t="n">
-        <v>9.44</v>
+        <v>6.19</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.62</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.460000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>22.05</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="J4" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13.46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J5" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.42</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="C6" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="H6" t="n">
-        <v>17.17</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="J6" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>17.62</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="F7" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="J7" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.390000000000001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="D8" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17.17</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8.470000000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.58</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="C10" t="n">
-        <v>22.05</v>
-      </c>
-      <c r="D10" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="E10" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="F10" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="H10" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>13.77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="J11" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15.94005609244513</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.531970978043764</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-4.338472071817231</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.58102624875963</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-5.51222500213859</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.51906170896425</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.8837363686403595</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6.689508177401612</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>16.66808981594463</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.907725795448817</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-1.111267774218859</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11.95557711076658</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.279347287641306</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7848632940531981</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.342165237094075</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-1.552365254410743</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8.875525227386058</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-7.070511562193339</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6.532520204154405</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.501306732491769</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.23</v>
+        <v>22.31</v>
       </c>
       <c r="D2" t="n">
-        <v>6.22</v>
+        <v>23.8</v>
       </c>
       <c r="E2" t="n">
-        <v>4.48</v>
+        <v>17.98</v>
       </c>
       <c r="F2" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="G2" t="n">
-        <v>4.69</v>
+        <v>22.35</v>
       </c>
       <c r="H2" t="n">
-        <v>0.48</v>
+        <v>11.86</v>
       </c>
       <c r="I2" t="n">
-        <v>0.45</v>
+        <v>20.64</v>
       </c>
       <c r="J2" t="n">
-        <v>7.8</v>
+        <v>20.65</v>
       </c>
       <c r="K2" t="n">
-        <v>8.539999999999999</v>
+        <v>24.86</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.23</v>
+        <v>22.31</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99</v>
+        <v>1.95</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>7.19</v>
+        <v>19.16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.54</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>5.71</v>
+        <v>14.59</v>
       </c>
       <c r="I3" t="n">
-        <v>5.68</v>
+        <v>11.32</v>
       </c>
       <c r="J3" t="n">
-        <v>2.57</v>
+        <v>20.76</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.22</v>
+        <v>23.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.99</v>
+        <v>1.95</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.74</v>
+        <v>7.56</v>
       </c>
       <c r="F4" t="n">
-        <v>8.18</v>
+        <v>24.28</v>
       </c>
       <c r="G4" t="n">
-        <v>1.53</v>
+        <v>5.12</v>
       </c>
       <c r="H4" t="n">
-        <v>6.7</v>
+        <v>16.41</v>
       </c>
       <c r="I4" t="n">
-        <v>6.67</v>
+        <v>16.65</v>
       </c>
       <c r="J4" t="n">
-        <v>1.58</v>
+        <v>22.55</v>
       </c>
       <c r="K4" t="n">
-        <v>2.31</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.48</v>
+        <v>17.98</v>
       </c>
       <c r="C5" t="n">
-        <v>0.75</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>1.74</v>
+        <v>7.56</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.44</v>
+        <v>16.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.21</v>
+        <v>4.93</v>
       </c>
       <c r="H5" t="n">
-        <v>4.96</v>
+        <v>8.31</v>
       </c>
       <c r="I5" t="n">
-        <v>4.93</v>
+        <v>12.76</v>
       </c>
       <c r="J5" t="n">
-        <v>3.33</v>
+        <v>15.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.06</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="C6" t="n">
-        <v>7.19</v>
+        <v>19.16</v>
       </c>
       <c r="D6" t="n">
-        <v>8.18</v>
+        <v>24.28</v>
       </c>
       <c r="E6" t="n">
-        <v>6.44</v>
+        <v>16.08</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.65</v>
+        <v>22.04</v>
       </c>
       <c r="H6" t="n">
-        <v>1.48</v>
+        <v>14.77</v>
       </c>
       <c r="I6" t="n">
-        <v>1.51</v>
+        <v>10.02</v>
       </c>
       <c r="J6" t="n">
-        <v>9.76</v>
+        <v>29.04</v>
       </c>
       <c r="K6" t="n">
-        <v>10.49</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.69</v>
+        <v>22.35</v>
       </c>
       <c r="C7" t="n">
-        <v>0.54</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.53</v>
+        <v>5.12</v>
       </c>
       <c r="E7" t="n">
-        <v>0.21</v>
+        <v>4.93</v>
       </c>
       <c r="F7" t="n">
-        <v>6.65</v>
+        <v>22.04</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.17</v>
+        <v>11.69</v>
       </c>
       <c r="I7" t="n">
-        <v>5.14</v>
+        <v>11.15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.12</v>
+        <v>15.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.48</v>
+        <v>11.86</v>
       </c>
       <c r="C8" t="n">
-        <v>5.71</v>
+        <v>14.59</v>
       </c>
       <c r="D8" t="n">
-        <v>6.7</v>
+        <v>16.41</v>
       </c>
       <c r="E8" t="n">
-        <v>4.96</v>
+        <v>8.31</v>
       </c>
       <c r="F8" t="n">
-        <v>1.48</v>
+        <v>14.77</v>
       </c>
       <c r="G8" t="n">
-        <v>5.17</v>
+        <v>11.69</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03</v>
+        <v>2.56</v>
       </c>
       <c r="J8" t="n">
-        <v>8.279999999999999</v>
+        <v>21.51</v>
       </c>
       <c r="K8" t="n">
-        <v>9.01</v>
+        <v>20.28</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.45</v>
+        <v>20.64</v>
       </c>
       <c r="C9" t="n">
-        <v>5.68</v>
+        <v>11.32</v>
       </c>
       <c r="D9" t="n">
-        <v>6.67</v>
+        <v>16.65</v>
       </c>
       <c r="E9" t="n">
-        <v>4.93</v>
+        <v>12.76</v>
       </c>
       <c r="F9" t="n">
-        <v>1.51</v>
+        <v>10.02</v>
       </c>
       <c r="G9" t="n">
-        <v>5.14</v>
+        <v>11.15</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03</v>
+        <v>2.56</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.26</v>
+        <v>19.95</v>
       </c>
       <c r="K9" t="n">
-        <v>8.99</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.8</v>
+        <v>20.65</v>
       </c>
       <c r="C10" t="n">
-        <v>2.57</v>
+        <v>20.76</v>
       </c>
       <c r="D10" t="n">
-        <v>1.58</v>
+        <v>22.55</v>
       </c>
       <c r="E10" t="n">
-        <v>3.33</v>
+        <v>15.4</v>
       </c>
       <c r="F10" t="n">
-        <v>9.76</v>
+        <v>29.04</v>
       </c>
       <c r="G10" t="n">
-        <v>3.12</v>
+        <v>15.05</v>
       </c>
       <c r="H10" t="n">
-        <v>8.279999999999999</v>
+        <v>21.51</v>
       </c>
       <c r="I10" t="n">
-        <v>8.26</v>
+        <v>19.95</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.73</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.539999999999999</v>
+        <v>24.86</v>
       </c>
       <c r="C11" t="n">
-        <v>3.3</v>
+        <v>11.75</v>
       </c>
       <c r="D11" t="n">
-        <v>2.31</v>
+        <v>14.96</v>
       </c>
       <c r="E11" t="n">
-        <v>4.06</v>
+        <v>6.37</v>
       </c>
       <c r="F11" t="n">
-        <v>10.49</v>
+        <v>22.31</v>
       </c>
       <c r="G11" t="n">
-        <v>3.85</v>
+        <v>11.47</v>
       </c>
       <c r="H11" t="n">
-        <v>9.01</v>
+        <v>20.28</v>
       </c>
       <c r="I11" t="n">
-        <v>8.99</v>
+        <v>22.3</v>
       </c>
       <c r="J11" t="n">
-        <v>0.73</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
